--- a/infoPrueba.xlsx
+++ b/infoPrueba.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dn878\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriela Banezca\Documents\Proyecto2_modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735DB427-7D70-4F83-A22E-16B37AD9BE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7E8794-910A-42A3-A2F2-EC46F8FF3ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AAFEDCE4-1634-40DC-93FA-AD1B441476F6}"/>
   </bookViews>
@@ -98,7 +98,7 @@
     <t>D,E</t>
   </si>
   <si>
-    <t>G,F</t>
+    <t>G,F,A</t>
   </si>
 </sst>
 </file>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -462,10 +462,10 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
